--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 6/06-02-applying-custom-date-formats.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 6/06-02-applying-custom-date-formats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Intermediate/Course Files/Section 6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Intermediate Course Files\Instructor Files\Section 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D069C8D0-B519-48A3-B101-22811D8092EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A4BEE6-E0A4-4EDE-A3CF-DA362D0ADB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{758961EA-2580-40DB-A18F-1597F66221EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{758961EA-2580-40DB-A18F-1597F66221EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Date Formats" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Invoice Tracker</t>
   </si>
@@ -97,16 +97,42 @@
   </si>
   <si>
     <t>Company L</t>
+  </si>
+  <si>
+    <t>input today date</t>
+  </si>
+  <si>
+    <t>input today time</t>
+  </si>
+  <si>
+    <t>dynamic</t>
+  </si>
+  <si>
+    <t>Ctrl+; (semi-colon).</t>
+  </si>
+  <si>
+    <t>Ctrl+Shift + ; (semi-colon).</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>Today()</t>
+  </si>
+  <si>
+    <t>NOW()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +161,18 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -185,17 +223,25 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -511,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381A791A-C6E7-4475-8BF3-D063CCA75DB9}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -523,37 +569,106 @@
     <col min="2" max="2" width="20.59765625" customWidth="1"/>
     <col min="3" max="3" width="14.796875" customWidth="1"/>
     <col min="4" max="4" width="17.69921875" customWidth="1"/>
+    <col min="8" max="8" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="27.6" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="13">
+        <f ca="1" xml:space="preserve"> TODAY()</f>
+        <v>45439</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="14">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="B5" s="11">
+        <v>45439.613194444442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="9">
+        <f ca="1">TODAY()</f>
+        <v>45439</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="12">
+        <f ca="1">NOW()</f>
+        <v>45439.615325810184</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H9" s="9">
+        <v>45439</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -567,175 +682,176 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>43834</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>43861</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>993</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>43876</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>43921</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>961</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>43905</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>43951</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>792</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
         <v>43944</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>43982</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>938</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
         <v>43952</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>44012</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>537</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
         <v>43990</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>44043</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>918</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="15">
         <v>44026</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>44074</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>723</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="15">
         <v>44046</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>44104</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="15">
         <v>44096</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>44135</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>634</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="15">
         <v>44114</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>44165</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>727</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="15">
         <v>44155</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>44196</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>650</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="15">
         <v>44182</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>44227</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>861</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>